--- a/Reports/Eve_transmitterTF.xlsx
+++ b/Reports/Eve_transmitterTF.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.5067786677789</v>
+        <v>-43.37190236260432</v>
       </c>
       <c r="C2">
-        <v>21.46557884121965</v>
+        <v>-46.38220231924413</v>
       </c>
       <c r="D2">
-        <v>4.338241195123048e-29</v>
+        <v>0.332137632550492</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>34.6212565363352</v>
+        <v>-42.3572859496926</v>
       </c>
       <c r="C3">
-        <v>22.58005670977595</v>
+        <v>-45.36758590633242</v>
       </c>
       <c r="D3">
-        <v>1e-30</v>
+        <v>0.3319894766694718</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35.83825095263113</v>
+        <v>-41.30870900704916</v>
       </c>
       <c r="C4">
-        <v>23.79705112607188</v>
+        <v>-44.31900896368897</v>
       </c>
       <c r="D4">
-        <v>1e-30</v>
+        <v>0.3318170467517811</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37.09702737292398</v>
+        <v>-40.31036196426945</v>
       </c>
       <c r="C5">
-        <v>25.05582754636474</v>
+        <v>-43.32066192090926</v>
       </c>
       <c r="D5">
-        <v>1e-30</v>
+        <v>0.3316323579215171</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>38.28228554436171</v>
+        <v>-39.48991736077457</v>
       </c>
       <c r="C6">
-        <v>26.24108571780246</v>
+        <v>-42.50021731741437</v>
       </c>
       <c r="D6">
-        <v>1e-30</v>
+        <v>0.3314638583828663</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>39.16822408242315</v>
+        <v>-39.01867429855445</v>
       </c>
       <c r="C7">
-        <v>27.1270242558639</v>
+        <v>-42.02897425519427</v>
       </c>
       <c r="D7">
-        <v>1e-30</v>
+        <v>0.3313596321862144</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>39.46868820560121</v>
+        <v>-39.03165186640971</v>
       </c>
       <c r="C8">
-        <v>27.42748837904196</v>
+        <v>-42.04195182304952</v>
       </c>
       <c r="D8">
-        <v>1e-30</v>
+        <v>0.3313625788327374</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>39.0567192782482</v>
+        <v>-39.5245206193622</v>
       </c>
       <c r="C9">
-        <v>27.01551945168895</v>
+        <v>-42.53482057600201</v>
       </c>
       <c r="D9">
-        <v>1e-30</v>
+        <v>0.3314712911484675</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>38.10251165002046</v>
+        <v>-40.35737709333474</v>
       </c>
       <c r="C10">
-        <v>26.06131182346121</v>
+        <v>-43.36767704997455</v>
       </c>
       <c r="D10">
-        <v>1e-30</v>
+        <v>0.3316415399923741</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.89357707634648</v>
+        <v>-41.3598799834682</v>
       </c>
       <c r="C11">
-        <v>24.85237724978723</v>
+        <v>-44.37017994010801</v>
       </c>
       <c r="D11">
-        <v>1e-30</v>
+        <v>0.33182595325806</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.63693451281865</v>
+        <v>-74.36723567156352</v>
       </c>
       <c r="C12">
-        <v>23.59573468625941</v>
+        <v>-77.37753562820333</v>
       </c>
       <c r="D12">
-        <v>1e-30</v>
+        <v>0.3332996156824222</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.43296069363019</v>
+        <v>-65.48110474267231</v>
       </c>
       <c r="C13">
-        <v>22.39176086707095</v>
+        <v>-68.49140469931213</v>
       </c>
       <c r="D13">
-        <v>1e-30</v>
+        <v>0.3332395417540704</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.60430718509661</v>
+        <v>-43.37127025640744</v>
       </c>
       <c r="C14">
-        <v>21.56310735853736</v>
+        <v>-46.38157021304725</v>
       </c>
       <c r="D14">
-        <v>1.05986677448333e-29</v>
+        <v>0.3321375455320845</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.50658790293495</v>
+        <v>-43.03693561958123</v>
       </c>
       <c r="C15">
-        <v>21.46538807637571</v>
+        <v>-46.04723557622104</v>
       </c>
       <c r="D15">
-        <v>4.350083243251798e-29</v>
+        <v>0.3320906206425928</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.05142534018366</v>
+        <v>-42.87539730131812</v>
       </c>
       <c r="C16">
-        <v>22.01022551362442</v>
+        <v>-45.88569725795794</v>
       </c>
       <c r="D16">
-        <v>1e-30</v>
+        <v>0.3320672928604744</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.45087308027558</v>
+        <v>-42.91428962006295</v>
       </c>
       <c r="C17">
-        <v>22.40967325371634</v>
+        <v>-45.92458957670276</v>
       </c>
       <c r="D17">
-        <v>1e-30</v>
+        <v>0.3320729490234583</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.64687453289621</v>
+        <v>-43.1481281728916</v>
       </c>
       <c r="C18">
-        <v>22.60567470633696</v>
+        <v>-46.15842812953141</v>
       </c>
       <c r="D18">
-        <v>1e-30</v>
+        <v>0.3321064277418584</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.60958344270293</v>
+        <v>-43.3493478947785</v>
       </c>
       <c r="C19">
-        <v>22.56838361614368</v>
+        <v>-46.35964785141831</v>
       </c>
       <c r="D19">
-        <v>1e-30</v>
+        <v>0.3321345236856802</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.34508333852624</v>
+        <v>-43.31811368812402</v>
       </c>
       <c r="C20">
-        <v>22.30388351196699</v>
+        <v>-46.32841364476383</v>
       </c>
       <c r="D20">
-        <v>1e-30</v>
+        <v>0.3321302050702336</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.89250810030585</v>
+        <v>-42.53204044543318</v>
       </c>
       <c r="C21">
-        <v>21.8513082737466</v>
+        <v>-45.54234040207299</v>
       </c>
       <c r="D21">
-        <v>1e-30</v>
+        <v>0.3320162438036293</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.54398818422163</v>
+        <v>-41.82513353719368</v>
       </c>
       <c r="C22">
-        <v>21.50278835766238</v>
+        <v>-44.83543349383349</v>
       </c>
       <c r="D22">
-        <v>2.543340949200555e-29</v>
+        <v>0.3319045698925968</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.55065326442882</v>
+        <v>-41.2860597844525</v>
       </c>
       <c r="C23">
-        <v>21.50945343786958</v>
+        <v>-44.29635974109231</v>
       </c>
       <c r="D23">
-        <v>2.310232695807138e-29</v>
+        <v>0.3318130877844816</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.16825768924239</v>
+        <v>-41.00083478057417</v>
       </c>
       <c r="C24">
-        <v>22.12705786268314</v>
+        <v>-44.01113473721398</v>
       </c>
       <c r="D24">
-        <v>1e-30</v>
+        <v>0.3317623382343829</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.66109872089674</v>
+        <v>-41.02557848655533</v>
       </c>
       <c r="C25">
-        <v>22.61989889433749</v>
+        <v>-44.03587844319514</v>
       </c>
       <c r="D25">
-        <v>1e-30</v>
+        <v>0.3317668071462964</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>34.95482368949141</v>
+        <v>-41.35530274613674</v>
       </c>
       <c r="C26">
-        <v>22.91362386293216</v>
+        <v>-44.36560270277656</v>
       </c>
       <c r="D26">
-        <v>1e-30</v>
+        <v>0.3318251587072462</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>35.00294312115656</v>
+        <v>-41.92693830963415</v>
       </c>
       <c r="C27">
-        <v>22.96174329459731</v>
+        <v>-44.93723826627396</v>
       </c>
       <c r="D27">
-        <v>1e-30</v>
+        <v>0.3319212180978253</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>34.79702340262542</v>
+        <v>-42.65333994056348</v>
       </c>
       <c r="C28">
-        <v>22.75582357606617</v>
+        <v>-45.6636398972033</v>
       </c>
       <c r="D28">
-        <v>1e-30</v>
+        <v>0.3320345091347034</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>34.37097033812207</v>
+        <v>-43.37294086954415</v>
       </c>
       <c r="C29">
-        <v>22.32977051156282</v>
+        <v>-46.38324082618396</v>
       </c>
       <c r="D29">
-        <v>1e-30</v>
+        <v>0.3321377755019936</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>33.784699401777</v>
+        <v>-64.13045335144355</v>
       </c>
       <c r="C30">
-        <v>21.74349957521775</v>
+        <v>-67.14075330808336</v>
       </c>
       <c r="D30">
-        <v>1e-30</v>
+        <v>0.3332237621341213</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>33.50640199588833</v>
+        <v>-78.66880016412036</v>
       </c>
       <c r="C31">
-        <v>21.46520216932907</v>
+        <v>-81.67910012076015</v>
       </c>
       <c r="D31">
-        <v>4.36165433704287e-29</v>
+        <v>0.333312784882477</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>33.60933617917673</v>
+        <v>-61.98046203035247</v>
       </c>
       <c r="C32">
-        <v>21.56813635261749</v>
+        <v>-64.99076198699228</v>
       </c>
       <c r="D32">
-        <v>9.84735023490422e-30</v>
+        <v>0.3331929886473833</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>34.77384541903029</v>
+        <v>-74.85002922909212</v>
       </c>
       <c r="C33">
-        <v>22.73264559247103</v>
+        <v>-77.86032918573193</v>
       </c>
       <c r="D33">
-        <v>1e-30</v>
+        <v>0.3333014386986466</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>36.06954881061304</v>
+        <v>-37.21793098101519</v>
       </c>
       <c r="C34">
-        <v>24.0283489840538</v>
+        <v>-40.22823093765499</v>
       </c>
       <c r="D34">
-        <v>1e-30</v>
+        <v>0.3309049540948439</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>37.44825350313376</v>
+        <v>-35.53336567192927</v>
       </c>
       <c r="C35">
-        <v>25.40705367657451</v>
+        <v>-38.54366562856909</v>
       </c>
       <c r="D35">
-        <v>1e-30</v>
+        <v>0.3303852353262682</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>38.80382121855138</v>
+        <v>-34.50903115974052</v>
       </c>
       <c r="C36">
-        <v>26.76262139199214</v>
+        <v>-37.51933111638033</v>
       </c>
       <c r="D36">
-        <v>1e-30</v>
+        <v>0.3300162508032407</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>39.88595656560882</v>
+        <v>-34.79897179045126</v>
       </c>
       <c r="C37">
-        <v>27.84475673904957</v>
+        <v>-37.80927174709107</v>
       </c>
       <c r="D37">
-        <v>1e-30</v>
+        <v>0.3301251441319835</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>40.31793190027081</v>
+        <v>-36.19049783210671</v>
       </c>
       <c r="C38">
-        <v>28.27673207371156</v>
+        <v>-39.20079778874652</v>
       </c>
       <c r="D38">
-        <v>1e-30</v>
+        <v>0.3306000380114853</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>39.88873795932896</v>
+        <v>-37.95209252979278</v>
       </c>
       <c r="C39">
-        <v>27.84753813276971</v>
+        <v>-40.96239248643259</v>
       </c>
       <c r="D39">
-        <v>1e-30</v>
+        <v>0.3311017692016629</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>38.80796259881442</v>
+        <v>-39.66263301430528</v>
       </c>
       <c r="C40">
-        <v>26.76676277225517</v>
+        <v>-42.6729329709451</v>
       </c>
       <c r="D40">
-        <v>1e-30</v>
+        <v>0.3315006644457946</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>37.45243478364976</v>
+        <v>-41.20025601007329</v>
       </c>
       <c r="C41">
-        <v>25.41123495709051</v>
+        <v>-44.2105559667131</v>
       </c>
       <c r="D41">
-        <v>1e-30</v>
+        <v>0.3317979957466439</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>36.07309460413428</v>
+        <v>-42.55652422053337</v>
       </c>
       <c r="C42">
-        <v>24.03189477757504</v>
+        <v>-45.56682417717318</v>
       </c>
       <c r="D42">
-        <v>1e-30</v>
+        <v>0.3320199511561697</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>34.77649774212996</v>
+        <v>-43.37225997596622</v>
       </c>
       <c r="C43">
-        <v>22.73529791557071</v>
+        <v>-46.38255993260603</v>
       </c>
       <c r="D43">
-        <v>1e-30</v>
+        <v>0.3321376817782524</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>33.59305810325833</v>
+        <v>-67.39697993856848</v>
       </c>
       <c r="C44">
-        <v>21.55185827669908</v>
+        <v>-70.40727989520829</v>
       </c>
       <c r="D44">
-        <v>1.248950673993886e-29</v>
+        <v>0.3332581069657125</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>33.50682631501833</v>
+        <v>-64.0216981613394</v>
       </c>
       <c r="C45">
-        <v>21.46562648845908</v>
+        <v>-67.03199811797921</v>
       </c>
       <c r="D45">
-        <v>4.335288367216026e-29</v>
+        <v>0.3332223815788728</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>33.63858257227604</v>
+        <v>-61.31711535899399</v>
       </c>
       <c r="C46">
-        <v>21.5973827457168</v>
+        <v>-64.3274153156338</v>
       </c>
       <c r="D46">
-        <v>6.410452968048721e-30</v>
+        <v>0.3331818505405612</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>34.93571063728163</v>
+        <v>-59.29955205752204</v>
       </c>
       <c r="C47">
-        <v>22.89451081072238</v>
+        <v>-62.30985201416185</v>
       </c>
       <c r="D47">
-        <v>1e-30</v>
+        <v>0.333142241795947</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>36.46982759403477</v>
+        <v>-71.75777223300038</v>
       </c>
       <c r="C48">
-        <v>24.42862776747553</v>
+        <v>-74.76807218964019</v>
       </c>
       <c r="D48">
-        <v>1e-30</v>
+        <v>0.3332877998913485</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>38.2876165350543</v>
+        <v>-35.18277314555471</v>
       </c>
       <c r="C49">
-        <v>26.24641670849505</v>
+        <v>-38.19307310219452</v>
       </c>
       <c r="D49">
-        <v>1e-30</v>
+        <v>0.3302638110129074</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>40.45975604574874</v>
+        <v>-33.90566629897337</v>
       </c>
       <c r="C50">
-        <v>28.41855621918949</v>
+        <v>-36.91596625561318</v>
       </c>
       <c r="D50">
-        <v>1e-30</v>
+        <v>0.3297776519169676</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>42.96470801049043</v>
+        <v>-34.05194689806068</v>
       </c>
       <c r="C51">
-        <v>30.92350818393118</v>
+        <v>-37.06224685470049</v>
       </c>
       <c r="D51">
-        <v>1e-30</v>
+        <v>0.3298370289032728</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>45.19980767533669</v>
+        <v>-35.50144832560052</v>
       </c>
       <c r="C52">
-        <v>33.15860784877744</v>
+        <v>-38.51174828224033</v>
       </c>
       <c r="D52">
-        <v>1e-30</v>
+        <v>0.3303743827042379</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>45.36968493709347</v>
+        <v>-37.38319061724341</v>
       </c>
       <c r="C53">
-        <v>33.32848511053422</v>
+        <v>-40.39349057388321</v>
       </c>
       <c r="D53">
-        <v>1e-30</v>
+        <v>0.3309507189746757</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>43.2754299084998</v>
+        <v>-39.19471185401724</v>
       </c>
       <c r="C54">
-        <v>31.23423008194055</v>
+        <v>-42.20501181065706</v>
       </c>
       <c r="D54">
-        <v>1e-30</v>
+        <v>0.3313992299969385</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>40.75222185150157</v>
+        <v>-40.80495145203953</v>
       </c>
       <c r="C55">
-        <v>28.71102202494232</v>
+        <v>-43.81525140867934</v>
       </c>
       <c r="D55">
-        <v>1e-30</v>
+        <v>0.3317265072236086</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>38.53744986374777</v>
+        <v>-42.21258386362517</v>
       </c>
       <c r="C56">
-        <v>26.49625003718851</v>
+        <v>-45.22288382026498</v>
       </c>
       <c r="D56">
-        <v>1e-30</v>
+        <v>0.331966901437636</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>36.6833202403382</v>
+        <v>-43.36978111174989</v>
       </c>
       <c r="C57">
-        <v>24.64212041377895</v>
+        <v>-46.38008106838971</v>
       </c>
       <c r="D57">
-        <v>1e-30</v>
+        <v>0.3321373405051108</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>35.12156107631824</v>
+        <v>-63.71068805648578</v>
       </c>
       <c r="C58">
-        <v>23.08036124975899</v>
+        <v>-66.72098801312559</v>
       </c>
       <c r="D58">
-        <v>1e-30</v>
+        <v>0.3332183368185428</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>33.78539072193852</v>
+        <v>-69.01224799977017</v>
       </c>
       <c r="C59">
-        <v>21.74419089537928</v>
+        <v>-72.02254795640998</v>
       </c>
       <c r="D59">
-        <v>1e-30</v>
+        <v>0.3332708726558201</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>33.50898079176547</v>
+        <v>-42.16371780116609</v>
       </c>
       <c r="C60">
-        <v>21.46778096520622</v>
+        <v>-45.17401775780591</v>
       </c>
       <c r="D60">
-        <v>4.20381626012822e-29</v>
+        <v>0.3319591924135895</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>33.61543883171675</v>
+        <v>-41.84212751160371</v>
       </c>
       <c r="C61">
-        <v>21.5742390051575</v>
+        <v>-44.85242746824352</v>
       </c>
       <c r="D61">
-        <v>9.005771434387719e-30</v>
+        <v>0.331907362513833</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>34.46484785378803</v>
+        <v>-41.74807410935212</v>
       </c>
       <c r="C62">
-        <v>22.42364802722878</v>
+        <v>-44.75837406599194</v>
       </c>
       <c r="D62">
-        <v>1e-30</v>
+        <v>0.3318918379263617</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>35.27385613249889</v>
+        <v>-41.89622100953652</v>
       </c>
       <c r="C63">
-        <v>23.23265630593964</v>
+        <v>-44.90652096617633</v>
       </c>
       <c r="D63">
-        <v>1e-30</v>
+        <v>0.3319162154154678</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>35.95564349288815</v>
+        <v>-42.26233208302095</v>
       </c>
       <c r="C64">
-        <v>23.9144436663289</v>
+        <v>-45.27263203966076</v>
       </c>
       <c r="D64">
-        <v>1e-30</v>
+        <v>0.3319747052051825</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>36.41251293654691</v>
+        <v>-42.79467969634213</v>
       </c>
       <c r="C65">
-        <v>24.37131310998766</v>
+        <v>-45.80497965298194</v>
       </c>
       <c r="D65">
-        <v>1e-30</v>
+        <v>0.3320554728536835</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>36.55710730522768</v>
+        <v>-43.36005480548754</v>
       </c>
       <c r="C66">
-        <v>24.51590747866844</v>
+        <v>-46.37035476212735</v>
       </c>
       <c r="D66">
-        <v>1e-30</v>
+        <v>0.332136000512335</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>36.35792536106141</v>
+        <v>-43.34877845839983</v>
       </c>
       <c r="C67">
-        <v>24.31672553450217</v>
+        <v>-46.35907841503965</v>
       </c>
       <c r="D67">
-        <v>1e-30</v>
+        <v>0.3321344450911313</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>35.85942393469684</v>
+        <v>-43.01908913912023</v>
       </c>
       <c r="C68">
-        <v>23.81822410813759</v>
+        <v>-46.02938909576005</v>
       </c>
       <c r="D68">
-        <v>1e-30</v>
+        <v>0.3320880646942316</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>35.15418645657167</v>
+        <v>-42.85009230364941</v>
       </c>
       <c r="C69">
-        <v>23.11298663001243</v>
+        <v>-45.86039226028922</v>
       </c>
       <c r="D69">
-        <v>1e-30</v>
+        <v>0.332063599097124</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>34.33768107875784</v>
+        <v>-42.86298444569557</v>
       </c>
       <c r="C70">
-        <v>22.2964812521986</v>
+        <v>-45.87328440233538</v>
       </c>
       <c r="D70">
-        <v>1e-30</v>
+        <v>0.3320654823040765</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>33.51605527665446</v>
+        <v>-43.05664125800108</v>
       </c>
       <c r="C71">
-        <v>21.47485545009521</v>
+        <v>-46.06694121464089</v>
       </c>
       <c r="D71">
-        <v>3.799105762274632e-29</v>
+        <v>0.3320934367631209</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>33.51296038429874</v>
+        <v>-77.99578011178178</v>
       </c>
       <c r="C72">
-        <v>21.47176055773949</v>
+        <v>-81.00608006842158</v>
       </c>
       <c r="D72">
-        <v>3.971206230681132e-29</v>
+        <v>0.3333111293911086</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>34.5678680572382</v>
+        <v>-43.36694398485227</v>
       </c>
       <c r="C73">
-        <v>22.52666823067895</v>
+        <v>-46.37724394149208</v>
       </c>
       <c r="D73">
-        <v>1e-30</v>
+        <v>0.3321369497892595</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>35.67774704327127</v>
+        <v>-42.20468807096093</v>
       </c>
       <c r="C74">
-        <v>23.63654721671202</v>
+        <v>-45.21498802760074</v>
       </c>
       <c r="D74">
-        <v>1e-30</v>
+        <v>0.3319656587470656</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>36.78949100124863</v>
+        <v>-40.90785780098146</v>
       </c>
       <c r="C75">
-        <v>24.74829117468938</v>
+        <v>-43.91815775762127</v>
       </c>
       <c r="D75">
-        <v>1e-30</v>
+        <v>0.3317454315937242</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>37.7911590473889</v>
+        <v>-39.49783770495886</v>
       </c>
       <c r="C76">
-        <v>25.74995922082966</v>
+        <v>-42.50813766159867</v>
       </c>
       <c r="D76">
-        <v>1e-30</v>
+        <v>0.3314655622834881</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>38.49759450753658</v>
+        <v>-38.04731169583533</v>
       </c>
       <c r="C77">
-        <v>26.45639468097733</v>
+        <v>-41.05761165247514</v>
       </c>
       <c r="D77">
-        <v>1e-30</v>
+        <v>0.3311260985854054</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>38.70699969028748</v>
+        <v>-36.76576196894685</v>
       </c>
       <c r="C78">
-        <v>26.66579986372823</v>
+        <v>-39.77606192558666</v>
       </c>
       <c r="D78">
-        <v>1e-30</v>
+        <v>0.3307751933856787</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>38.34458461046601</v>
+        <v>-36.04911728895443</v>
       </c>
       <c r="C79">
-        <v>26.30338478390676</v>
+        <v>-39.05941724559424</v>
       </c>
       <c r="D79">
-        <v>1e-30</v>
+        <v>0.3305551856270372</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>37.53301392766097</v>
+        <v>-36.24901136804452</v>
       </c>
       <c r="C80">
-        <v>25.49181410110172</v>
+        <v>-39.25931132468433</v>
       </c>
       <c r="D80">
-        <v>1e-30</v>
+        <v>0.3306183886609899</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>36.48142389399402</v>
+        <v>-37.25771222276936</v>
       </c>
       <c r="C81">
-        <v>24.44022406743477</v>
+        <v>-40.26801217940917</v>
       </c>
       <c r="D81">
-        <v>1e-30</v>
+        <v>0.3309160502980563</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>35.35682791306784</v>
+        <v>-65.00500374056473</v>
       </c>
       <c r="C82">
-        <v>23.31562808650859</v>
+        <v>-68.01530369720453</v>
       </c>
       <c r="D82">
-        <v>1e-30</v>
+        <v>0.3332342572345163</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>34.25279215932166</v>
+        <v>-63.90337709019214</v>
       </c>
       <c r="C83">
-        <v>22.21159233276241</v>
+        <v>-66.91367704683195</v>
       </c>
       <c r="D83">
-        <v>1e-30</v>
+        <v>0.3332208598288439</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>33.62993323698011</v>
+        <v>-61.54157902328139</v>
       </c>
       <c r="C84">
-        <v>21.58873341042086</v>
+        <v>-64.5518789799212</v>
       </c>
       <c r="D84">
-        <v>7.280372082676155e-30</v>
+        <v>0.3331857150599674</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>33.5083151629912</v>
+        <v>-61.74508540718382</v>
       </c>
       <c r="C85">
-        <v>21.46711533643195</v>
+        <v>-64.75538536382363</v>
       </c>
       <c r="D85">
-        <v>4.24401028095344e-29</v>
+        <v>0.3331891334851759</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>34.8125063985222</v>
+        <v>-74.17769390553809</v>
       </c>
       <c r="C86">
-        <v>22.77130657196295</v>
+        <v>-77.1879938621779</v>
       </c>
       <c r="D86">
-        <v>1e-30</v>
+        <v>0.3332988718157787</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>36.34426751424947</v>
+        <v>-43.37060583382546</v>
       </c>
       <c r="C87">
-        <v>24.30306768769022</v>
+        <v>-46.38090579046528</v>
       </c>
       <c r="D87">
-        <v>1e-30</v>
+        <v>0.3321374540580403</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>38.17273246970679</v>
+        <v>-42.09742363880891</v>
       </c>
       <c r="C88">
-        <v>26.13153264314754</v>
+        <v>-45.10772359544872</v>
       </c>
       <c r="D88">
-        <v>1e-30</v>
+        <v>0.3319486643923559</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>40.39438578557024</v>
+        <v>-40.60709106553436</v>
       </c>
       <c r="C89">
-        <v>28.353185959011</v>
+        <v>-43.61739102217417</v>
       </c>
       <c r="D89">
-        <v>1e-30</v>
+        <v>0.3316894848842259</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>43.06765487135694</v>
+        <v>-38.86222256631284</v>
       </c>
       <c r="C90">
-        <v>31.02645504479769</v>
+        <v>-41.87252252295265</v>
       </c>
       <c r="D90">
-        <v>1e-30</v>
+        <v>0.3313237601164461</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>45.75550813073312</v>
+        <v>-36.82126521739712</v>
       </c>
       <c r="C91">
-        <v>33.71430830417387</v>
+        <v>-39.83156517403693</v>
       </c>
       <c r="D91">
-        <v>1e-30</v>
+        <v>0.3307914874072392</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>46.36097014375721</v>
+        <v>-34.55839389750313</v>
       </c>
       <c r="C92">
-        <v>34.31977031719796</v>
+        <v>-37.56869385414294</v>
       </c>
       <c r="D92">
-        <v>1e-30</v>
+        <v>0.330035047667103</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>44.08982407867541</v>
+        <v>-32.65777440905375</v>
       </c>
       <c r="C93">
-        <v>32.04862425211616</v>
+        <v>-35.66807436569356</v>
       </c>
       <c r="D93">
-        <v>1e-30</v>
+        <v>0.3292283336324746</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>41.2984239316655</v>
+        <v>-32.49687740580756</v>
       </c>
       <c r="C94">
-        <v>29.25722410510625</v>
+        <v>-35.50717736244737</v>
       </c>
       <c r="D94">
-        <v>1e-30</v>
+        <v>0.3291515904244782</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>38.91221678670081</v>
+        <v>-34.24209102964832</v>
       </c>
       <c r="C95">
-        <v>26.87101696014156</v>
+        <v>-37.25239098628813</v>
       </c>
       <c r="D95">
-        <v>1e-30</v>
+        <v>0.3299127311407826</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>36.95315019847643</v>
+        <v>-36.51008518704091</v>
       </c>
       <c r="C96">
-        <v>24.91195037191718</v>
+        <v>-39.52038514368072</v>
       </c>
       <c r="D96">
-        <v>1e-30</v>
+        <v>0.3306987755236046</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>35.3233680240638</v>
+        <v>-66.83401539699362</v>
       </c>
       <c r="C97">
-        <v>23.28216819750455</v>
+        <v>-69.84431535363343</v>
       </c>
       <c r="D97">
-        <v>1e-30</v>
+        <v>0.3332530697918521</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>33.94025978753258</v>
+        <v>-61.90437624417321</v>
       </c>
       <c r="C98">
-        <v>21.89905996097334</v>
+        <v>-64.91467620081303</v>
       </c>
       <c r="D98">
-        <v>1e-30</v>
+        <v>0.3331917538699298</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>33.63506169562234</v>
+        <v>-62.07832442281567</v>
       </c>
       <c r="C99">
-        <v>21.59386186906309</v>
+        <v>-65.08862437945548</v>
       </c>
       <c r="D99">
-        <v>6.751472665668722e-30</v>
+        <v>0.3331945610117478</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>33.50674190552569</v>
+        <v>-66.65666816038927</v>
       </c>
       <c r="C100">
-        <v>21.46554207896645</v>
+        <v>-69.66696811702909</v>
       </c>
       <c r="D100">
-        <v>4.340520803529316e-29</v>
+        <v>0.3332514141376023</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>34.55806477312282</v>
+        <v>-65.88837890843206</v>
       </c>
       <c r="C101">
-        <v>22.51686494656357</v>
+        <v>-68.89867886507187</v>
       </c>
       <c r="D101">
-        <v>1e-30</v>
+        <v>0.3332438380512822</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>35.64487636577866</v>
+        <v>-43.37173875655882</v>
       </c>
       <c r="C102">
-        <v>23.60367653921941</v>
+        <v>-46.38203871319863</v>
       </c>
       <c r="D102">
-        <v>1e-30</v>
+        <v>0.3321376100284005</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>36.69898237040725</v>
+        <v>-42.45098765784667</v>
       </c>
       <c r="C103">
-        <v>24.657782543848</v>
+        <v>-45.46128761448649</v>
       </c>
       <c r="D103">
-        <v>1e-30</v>
+        <v>0.3320038958997185</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>37.59168921733092</v>
+        <v>-41.55424543769128</v>
       </c>
       <c r="C104">
-        <v>25.55048939077167</v>
+        <v>-44.56454539433109</v>
       </c>
       <c r="D104">
-        <v>1e-30</v>
+        <v>0.3318593091815314</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>38.13731379080006</v>
+        <v>-40.76965223312351</v>
       </c>
       <c r="C105">
-        <v>26.09611396424081</v>
+        <v>-43.77995218976332</v>
       </c>
       <c r="D105">
-        <v>1e-30</v>
+        <v>0.3317199639191005</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>38.1741564289302</v>
+        <v>-40.21234294461203</v>
       </c>
       <c r="C106">
-        <v>26.13295660237095</v>
+        <v>-43.22264290125184</v>
       </c>
       <c r="D106">
-        <v>1e-30</v>
+        <v>0.331613054209021</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>37.68989486734388</v>
+        <v>-39.99791072246271</v>
       </c>
       <c r="C107">
-        <v>25.64869504078464</v>
+        <v>-43.00821067910252</v>
       </c>
       <c r="D107">
-        <v>1e-30</v>
+        <v>0.3315700570058526</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>36.83289909865755</v>
+        <v>-40.17990863469413</v>
       </c>
       <c r="C108">
-        <v>24.7916992720983</v>
+        <v>-43.19020859133394</v>
       </c>
       <c r="D108">
-        <v>1e-30</v>
+        <v>0.3316066185312113</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>35.7923668611668</v>
+        <v>-40.71220005722232</v>
       </c>
       <c r="C109">
-        <v>23.75116703460756</v>
+        <v>-43.72250001386213</v>
       </c>
       <c r="D109">
-        <v>1e-30</v>
+        <v>0.3317092571679269</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>34.7059774951142</v>
+        <v>-41.48169906181499</v>
       </c>
       <c r="C110">
-        <v>22.66477766855495</v>
+        <v>-44.49199901845481</v>
       </c>
       <c r="D110">
-        <v>1e-30</v>
+        <v>0.3318469463932121</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>33.64833106056393</v>
+        <v>-42.37149588792428</v>
       </c>
       <c r="C111">
-        <v>21.60713123400468</v>
+        <v>-45.38179584456409</v>
       </c>
       <c r="D111">
-        <v>5.552259529311828e-30</v>
+        <v>0.3319916733755179</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>33.59414527601405</v>
+        <v>-74.45164895924358</v>
       </c>
       <c r="C112">
-        <v>21.5529454494548</v>
+        <v>-77.4619489158834</v>
       </c>
       <c r="D112">
-        <v>1.229314603048832e-29</v>
+        <v>0.3332999417782128</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>33.50704111710439</v>
+        <v>-74.40286396775987</v>
       </c>
       <c r="C113">
-        <v>21.46584129054514</v>
+        <v>-77.41316392439968</v>
       </c>
       <c r="D113">
-        <v>4.322001039199429e-29</v>
+        <v>0.333299753704211</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>33.89440852824139</v>
+        <v>-43.36915389568816</v>
       </c>
       <c r="C114">
-        <v>21.85320870168215</v>
+        <v>-46.37945385232797</v>
       </c>
       <c r="D114">
-        <v>1e-30</v>
+        <v>0.332137254138835</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>34.10927883622213</v>
+        <v>-43.28639446987356</v>
       </c>
       <c r="C115">
-        <v>22.06807900966288</v>
+        <v>-46.29669442651338</v>
       </c>
       <c r="D115">
-        <v>1e-30</v>
+        <v>0.3321258034725921</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>34.12071797469685</v>
+        <v>-43.3614422088942</v>
       </c>
       <c r="C116">
-        <v>22.0795181481376</v>
+        <v>-46.37174216553401</v>
       </c>
       <c r="D116">
-        <v>1e-30</v>
+        <v>0.3321361917466036</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>33.92723202932027</v>
+        <v>-43.36524939033009</v>
       </c>
       <c r="C117">
-        <v>21.88603220276102</v>
+        <v>-46.3755493469699</v>
       </c>
       <c r="D117">
-        <v>1e-30</v>
+        <v>0.33213671635674</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>33.55516871288798</v>
+        <v>-43.34472080408209</v>
       </c>
       <c r="C118">
-        <v>21.51396888632874</v>
+        <v>-46.3550207607219</v>
       </c>
       <c r="D118">
-        <v>2.164390533165152e-29</v>
+        <v>0.3321338848977914</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>33.53236992113268</v>
+        <v>-43.36982755779556</v>
       </c>
       <c r="C119">
-        <v>21.49117009457342</v>
+        <v>-46.38012751443537</v>
       </c>
       <c r="D119">
-        <v>3.006266356999753e-29</v>
+        <v>0.3321373469003813</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>33.56267877511143</v>
+        <v>-75.68462369820151</v>
       </c>
       <c r="C120">
-        <v>21.52147894855218</v>
+        <v>-78.69492365484132</v>
       </c>
       <c r="D120">
-        <v>1.941641639943972e-29</v>
+        <v>0.3333043607040857</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>34.31051355438495</v>
+        <v>-42.4066959053237</v>
       </c>
       <c r="C121">
-        <v>22.2693137278257</v>
+        <v>-45.41699586196351</v>
       </c>
       <c r="D121">
-        <v>1e-30</v>
+        <v>0.3319970994739104</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>34.9709964727429</v>
+        <v>-41.53471498351372</v>
       </c>
       <c r="C122">
-        <v>22.92979664618365</v>
+        <v>-44.54501494015354</v>
       </c>
       <c r="D122">
-        <v>1e-30</v>
+        <v>0.3318559911040248</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>35.45458853690062</v>
+        <v>-40.78695276071088</v>
       </c>
       <c r="C123">
-        <v>23.41338871034137</v>
+        <v>-43.79725271735069</v>
       </c>
       <c r="D123">
-        <v>1e-30</v>
+        <v>0.3317231741857506</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>35.68382080071446</v>
+        <v>-40.27705073672819</v>
       </c>
       <c r="C124">
-        <v>23.64262097415521</v>
+        <v>-43.287350693368</v>
       </c>
       <c r="D124">
-        <v>1e-30</v>
+        <v>0.3316258220808381</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>35.61466338619043</v>
+        <v>-40.11210168129509</v>
       </c>
       <c r="C125">
-        <v>23.57346355963118</v>
+        <v>-43.12240163793491</v>
       </c>
       <c r="D125">
-        <v>1e-30</v>
+        <v>0.3315930862616766</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>35.26071225553245</v>
+        <v>-40.33308036571483</v>
       </c>
       <c r="C126">
-        <v>23.2195124289732</v>
+        <v>-43.34338032235464</v>
       </c>
       <c r="D126">
-        <v>1e-30</v>
+        <v>0.3316368010386621</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>34.68530701673134</v>
+        <v>-40.88625601745964</v>
       </c>
       <c r="C127">
-        <v>22.6441071901721</v>
+        <v>-43.89655597409945</v>
       </c>
       <c r="D127">
-        <v>1e-30</v>
+        <v>0.3317414776188614</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>33.96974328049901</v>
+        <v>-41.66005940173024</v>
       </c>
       <c r="C128">
-        <v>21.92854345393976</v>
+        <v>-44.67035935837004</v>
       </c>
       <c r="D128">
-        <v>1e-30</v>
+        <v>0.3318771570454926</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>33.50643829429603</v>
+        <v>-42.54373998211663</v>
       </c>
       <c r="C129">
-        <v>21.46523846773679</v>
+        <v>-45.55403993875644</v>
       </c>
       <c r="D129">
-        <v>4.359392700544224e-29</v>
+        <v>0.3320180166604196</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>33.61796357444962</v>
+        <v>-43.37259864663253</v>
       </c>
       <c r="C130">
-        <v>21.57676374789037</v>
+        <v>-46.38289860327234</v>
       </c>
       <c r="D130">
-        <v>8.678680255548467e-30</v>
+        <v>0.3321377283965614</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>34.85148151004494</v>
+        <v>-68.0310048857651</v>
       </c>
       <c r="C131">
-        <v>22.8102816834857</v>
+        <v>-71.04130484240491</v>
       </c>
       <c r="D131">
-        <v>1e-30</v>
+        <v>0.3332634024771577</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>36.2554623275121</v>
+        <v>-62.38174881388791</v>
       </c>
       <c r="C132">
-        <v>24.21426250095285</v>
+        <v>-65.39204877052772</v>
       </c>
       <c r="D132">
-        <v>1e-30</v>
+        <v>0.3331993250525335</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>37.82217031941733</v>
+        <v>-61.76925778452529</v>
       </c>
       <c r="C133">
-        <v>25.78097049285808</v>
+        <v>-64.77955774116511</v>
       </c>
       <c r="D133">
-        <v>1e-30</v>
+        <v>0.3331895342279033</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>39.49381892854237</v>
+        <v>-67.15870971970284</v>
       </c>
       <c r="C134">
-        <v>27.45261910198312</v>
+        <v>-70.16900967634265</v>
       </c>
       <c r="D134">
-        <v>1e-30</v>
+        <v>0.3332560148008248</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>41.03415595414181</v>
+        <v>-36.65255266618806</v>
       </c>
       <c r="C135">
-        <v>28.99295612758256</v>
+        <v>-39.66285262282788</v>
       </c>
       <c r="D135">
-        <v>1e-30</v>
+        <v>0.330741634173507</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>41.89736960200082</v>
+        <v>-34.44512724216847</v>
       </c>
       <c r="C136">
-        <v>29.85616977544157</v>
+        <v>-37.45542719880828</v>
       </c>
       <c r="D136">
-        <v>1e-30</v>
+        <v>0.3299917576183556</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>41.56117959322337</v>
+        <v>-32.74538548641074</v>
       </c>
       <c r="C137">
-        <v>29.51997976666412</v>
+        <v>-35.75568544305055</v>
       </c>
       <c r="D137">
-        <v>1e-30</v>
+        <v>0.3292695277719968</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>40.25088197776075</v>
+        <v>-32.84683944074721</v>
       </c>
       <c r="C138">
-        <v>28.2096821512015</v>
+        <v>-35.85713939738702</v>
       </c>
       <c r="D138">
-        <v>1e-30</v>
+        <v>0.3293167145688981</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>38.5934629131545</v>
+        <v>-34.64787923183675</v>
       </c>
       <c r="C139">
-        <v>26.55226308659525</v>
+        <v>-37.65817918847657</v>
       </c>
       <c r="D139">
-        <v>1e-30</v>
+        <v>0.330068851713469</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>36.96385185587278</v>
+        <v>-36.85457836348139</v>
       </c>
       <c r="C140">
-        <v>24.92265202931353</v>
+        <v>-39.8648783201212</v>
       </c>
       <c r="D140">
-        <v>1e-30</v>
+        <v>0.3308012172283307</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>35.48276216175574</v>
+        <v>-38.87061949991428</v>
       </c>
       <c r="C141">
-        <v>23.44156233519649</v>
+        <v>-41.8809194565541</v>
       </c>
       <c r="D141">
-        <v>1e-30</v>
+        <v>0.3313257018609589</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>34.1658420635659</v>
+        <v>-40.60451296944461</v>
       </c>
       <c r="C142">
-        <v>22.12464223700665</v>
+        <v>-43.61481292608442</v>
       </c>
       <c r="D142">
-        <v>1e-30</v>
+        <v>0.3316889969003293</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>33.50721298921164</v>
+        <v>-42.08991870738202</v>
       </c>
       <c r="C143">
-        <v>21.46601316265238</v>
+        <v>-45.10021866402183</v>
       </c>
       <c r="D143">
-        <v>4.311398161413141e-29</v>
+        <v>0.3319474674807449</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>33.63910171012669</v>
+        <v>-43.37166386057304</v>
       </c>
       <c r="C144">
-        <v>21.59790188356744</v>
+        <v>-46.38196381721286</v>
       </c>
       <c r="D144">
-        <v>6.361627197838134e-30</v>
+        <v>0.3321375997180395</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>34.91378075158369</v>
+        <v>-80.07726211309809</v>
       </c>
       <c r="C145">
-        <v>22.87258092502444</v>
+        <v>-83.0875620697379</v>
       </c>
       <c r="D145">
-        <v>1e-30</v>
+        <v>0.3333158607955315</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>36.38637546885333</v>
+        <v>-78.01113103866415</v>
       </c>
       <c r="C146">
-        <v>24.34517564229408</v>
+        <v>-81.02143099530396</v>
       </c>
       <c r="D146">
-        <v>1e-30</v>
+        <v>0.3333111685983844</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>38.08641812623731</v>
+        <v>-66.68564261952554</v>
       </c>
       <c r="C147">
-        <v>26.04521829967805</v>
+        <v>-69.69594257616535</v>
       </c>
       <c r="D147">
-        <v>1e-30</v>
+        <v>0.3332516869490165</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>40.01993423027759</v>
+        <v>-59.96249504570122</v>
       </c>
       <c r="C148">
-        <v>27.97873440371835</v>
+        <v>-62.97279500234104</v>
       </c>
       <c r="D148">
-        <v>1e-30</v>
+        <v>0.3331562839940665</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>42.03800931881078</v>
+        <v>-73.72997410697346</v>
       </c>
       <c r="C149">
-        <v>29.99680949225153</v>
+        <v>-76.74027406361327</v>
       </c>
       <c r="D149">
-        <v>1e-30</v>
+        <v>0.3332970488964015</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>43.51522401876673</v>
+        <v>-36.48287181999083</v>
       </c>
       <c r="C150">
-        <v>31.47402419220749</v>
+        <v>-39.49317177663064</v>
       </c>
       <c r="D150">
-        <v>1e-30</v>
+        <v>0.3306905086376861</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>43.4204769202206</v>
+        <v>-35.80537298635412</v>
       </c>
       <c r="C151">
-        <v>31.37927709366135</v>
+        <v>-38.81567294299393</v>
       </c>
       <c r="D151">
-        <v>1e-30</v>
+        <v>0.3304761237940672</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>41.83994145424258</v>
+        <v>-36.10436959111733</v>
       </c>
       <c r="C152">
-        <v>29.79874162768333</v>
+        <v>-39.11466954775714</v>
       </c>
       <c r="D152">
-        <v>1e-30</v>
+        <v>0.3305728011354372</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>39.81641968871357</v>
+        <v>-37.2104183576806</v>
       </c>
       <c r="C153">
-        <v>27.77521986215432</v>
+        <v>-40.2207183143204</v>
       </c>
       <c r="D153">
-        <v>1e-30</v>
+        <v>0.3309028528843381</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>37.90838891800676</v>
+        <v>-38.66207299162105</v>
       </c>
       <c r="C154">
-        <v>25.86718909144751</v>
+        <v>-41.67237294826086</v>
       </c>
       <c r="D154">
-        <v>1e-30</v>
+        <v>0.3312769166538345</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>36.23692877536548</v>
+        <v>-40.14174381513557</v>
       </c>
       <c r="C155">
-        <v>24.19572894880624</v>
+        <v>-43.15204377177538</v>
       </c>
       <c r="D155">
-        <v>1e-30</v>
+        <v>0.3315990149560048</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>34.78953266195717</v>
+        <v>-41.52174700123461</v>
       </c>
       <c r="C156">
-        <v>22.74833283539792</v>
+        <v>-44.53204695787442</v>
       </c>
       <c r="D156">
-        <v>1e-30</v>
+        <v>0.3318537838161546</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>33.52923149621017</v>
+        <v>-42.77032148047557</v>
       </c>
       <c r="C157">
-        <v>21.48803166965092</v>
+        <v>-45.78062143711538</v>
       </c>
       <c r="D157">
-        <v>3.144936803140261e-29</v>
+        <v>0.3320518842925543</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>33.50986850963228</v>
+        <v>-43.36854553000018</v>
       </c>
       <c r="C158">
-        <v>21.46866868307304</v>
+        <v>-46.37884548663998</v>
       </c>
       <c r="D158">
-        <v>4.150793781011959e-29</v>
+        <v>0.3321371703622561</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>33.60272322170519</v>
+        <v>-75.35614623545629</v>
       </c>
       <c r="C159">
-        <v>21.56152339514595</v>
+        <v>-78.36644619209611</v>
       </c>
       <c r="D159">
-        <v>1.084678795153954e-29</v>
+        <v>0.3333032440542835</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>34.28441961050118</v>
+        <v>-42.95310437492219</v>
       </c>
       <c r="C160">
-        <v>22.24321978394194</v>
+        <v>-45.963404331562</v>
       </c>
       <c r="D160">
-        <v>1e-30</v>
+        <v>0.3320785687125878</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>34.85933325312437</v>
+        <v>-42.7552395010425</v>
       </c>
       <c r="C161">
-        <v>22.81813342656513</v>
+        <v>-45.76553945768231</v>
       </c>
       <c r="D161">
-        <v>1e-30</v>
+        <v>0.33204965729822</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>35.26051720730116</v>
+        <v>-42.74313940715673</v>
       </c>
       <c r="C162">
-        <v>23.21931738074191</v>
+        <v>-45.75343936379654</v>
       </c>
       <c r="D162">
-        <v>1e-30</v>
+        <v>0.3320478678092553</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>35.42907340944672</v>
+        <v>-42.91786362583575</v>
       </c>
       <c r="C163">
-        <v>23.38787358288747</v>
+        <v>-45.92816358247556</v>
       </c>
       <c r="D163">
-        <v>1e-30</v>
+        <v>0.3320734675265313</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>35.33683834771563</v>
+        <v>-43.25720128663057</v>
       </c>
       <c r="C164">
-        <v>23.29563852115638</v>
+        <v>-46.26750124327038</v>
       </c>
       <c r="D164">
-        <v>1e-30</v>
+        <v>0.3321217381776449</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>35.00045563397022</v>
+        <v>-43.35299367486208</v>
       </c>
       <c r="C165">
-        <v>22.95925580741098</v>
+        <v>-46.36329363150189</v>
       </c>
       <c r="D165">
-        <v>1e-30</v>
+        <v>0.3321350267601867</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>34.47285661812295</v>
+        <v>-43.3566280539301</v>
       </c>
       <c r="C166">
-        <v>22.4316567915637</v>
+        <v>-46.36692801056991</v>
       </c>
       <c r="D166">
-        <v>1e-30</v>
+        <v>0.3321355280513673</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>33.82006184977763</v>
+        <v>-42.75681587449144</v>
       </c>
       <c r="C167">
-        <v>21.77886202321839</v>
+        <v>-45.76711583113125</v>
       </c>
       <c r="D167">
-        <v>1e-30</v>
+        <v>0.3320498902454001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>33.5195017486742</v>
+        <v>-42.27091224283809</v>
       </c>
       <c r="C168">
-        <v>21.47830192211495</v>
+        <v>-45.28121219947791</v>
       </c>
       <c r="D168">
-        <v>3.616084132280503e-29</v>
+        <v>0.3319760466209705</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>33.5344115547686</v>
+        <v>-41.96075728443155</v>
       </c>
       <c r="C169">
-        <v>21.49321172820935</v>
+        <v>-44.97105724107136</v>
       </c>
       <c r="D169">
-        <v>2.919306336420328e-29</v>
+        <v>0.3319267055027982</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>33.742204617155</v>
+        <v>-41.87094265853104</v>
       </c>
       <c r="C170">
-        <v>21.70100479059576</v>
+        <v>-44.88124261517085</v>
       </c>
       <c r="D170">
-        <v>1.368461775114088e-30</v>
+        <v>0.3319120852409172</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>33.78456442283288</v>
+        <v>-42.01619636411277</v>
       </c>
       <c r="C171">
-        <v>21.74336459627363</v>
+        <v>-45.02649632075258</v>
       </c>
       <c r="D171">
-        <v>1e-30</v>
+        <v>0.3319356548562421</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>33.65502594938842</v>
+        <v>-77.97232543852381</v>
       </c>
       <c r="C172">
-        <v>21.61382612282917</v>
+        <v>-80.98262539516362</v>
       </c>
       <c r="D172">
-        <v>5.029469693560521e-30</v>
+        <v>0.3333110693523552</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>33.56664519646911</v>
+        <v>-66.91933098069966</v>
       </c>
       <c r="C173">
-        <v>21.52544536990986</v>
+        <v>-69.92963093733947</v>
       </c>
       <c r="D173">
-        <v>1.833266059680239e-29</v>
+        <v>0.3332538543067965</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>33.51167544377204</v>
+        <v>-63.70778346850388</v>
       </c>
       <c r="C174">
-        <v>21.4704756172128</v>
+        <v>-66.71808342514369</v>
       </c>
       <c r="D174">
-        <v>4.04489234047522e-29</v>
+        <v>0.3332182983569296</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>34.65621878189901</v>
+        <v>-43.36780222185962</v>
       </c>
       <c r="C175">
-        <v>22.61501895533977</v>
+        <v>-46.37810217849943</v>
       </c>
       <c r="D175">
-        <v>1e-30</v>
+        <v>0.3321370679951112</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>35.91453726880031</v>
+        <v>-42.13565659536884</v>
       </c>
       <c r="C176">
-        <v>23.87333744224106</v>
+        <v>-45.14595655200866</v>
       </c>
       <c r="D176">
-        <v>1e-30</v>
+        <v>0.3319547458845801</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>37.26029205394442</v>
+        <v>-40.72675974206018</v>
       </c>
       <c r="C177">
-        <v>25.21909222738518</v>
+        <v>-43.73705969869999</v>
       </c>
       <c r="D177">
-        <v>1e-30</v>
+        <v>0.3317119772044417</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>38.60733565964017</v>
+        <v>-39.1225813904674</v>
       </c>
       <c r="C178">
-        <v>26.56613583308092</v>
+        <v>-42.1328813471072</v>
       </c>
       <c r="D178">
-        <v>1e-30</v>
+        <v>0.3313831019845646</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>39.74374546314618</v>
+        <v>-37.33635835018413</v>
       </c>
       <c r="C179">
-        <v>27.70254563658694</v>
+        <v>-40.34665830682394</v>
       </c>
       <c r="D179">
-        <v>1e-30</v>
+        <v>0.3309378381327867</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>40.31989325262207</v>
+        <v>-35.5250269665751</v>
       </c>
       <c r="C180">
-        <v>28.27869342606282</v>
+        <v>-38.53532692321491</v>
       </c>
       <c r="D180">
-        <v>1e-30</v>
+        <v>0.3303824038240299</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>40.07210888314468</v>
+        <v>-34.2145643167244</v>
       </c>
       <c r="C181">
-        <v>28.03090905658543</v>
+        <v>-37.22486427336421</v>
       </c>
       <c r="D181">
-        <v>1e-30</v>
+        <v>0.3299018742141123</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>39.12045295669057</v>
+        <v>-34.20274186117739</v>
       </c>
       <c r="C182">
-        <v>27.07925313013132</v>
+        <v>-37.2130418178172</v>
       </c>
       <c r="D182">
-        <v>1e-30</v>
+        <v>0.3298972006989275</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>37.82213466486931</v>
+        <v>-35.50022735156433</v>
       </c>
       <c r="C183">
-        <v>25.78093483831006</v>
+        <v>-38.51052730820415</v>
       </c>
       <c r="D183">
-        <v>1e-30</v>
+        <v>0.3303739667529796</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>36.45501061992685</v>
+        <v>-69.88165064391356</v>
       </c>
       <c r="C184">
-        <v>24.41381079336761</v>
+        <v>-72.89195060055337</v>
       </c>
       <c r="D184">
-        <v>1e-30</v>
+        <v>0.3332768218692214</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>35.15006597407339</v>
+        <v>-59.90956756137805</v>
       </c>
       <c r="C185">
-        <v>23.10886614751414</v>
+        <v>-62.91986751801786</v>
       </c>
       <c r="D185">
-        <v>1e-30</v>
+        <v>0.3331552018500814</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>33.95057109900043</v>
+        <v>-60.662979515842</v>
       </c>
       <c r="C186">
-        <v>21.90937127244118</v>
+        <v>-63.67327947248181</v>
       </c>
       <c r="D186">
-        <v>1e-30</v>
+        <v>0.3331700017802789</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>33.63539811014611</v>
+        <v>-62.40267631017715</v>
       </c>
       <c r="C187">
-        <v>21.59419828358687</v>
+        <v>-65.41297626681695</v>
       </c>
       <c r="D187">
-        <v>6.718131782696951e-30</v>
+        <v>0.3331996475389923</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>33.50800120128562</v>
+        <v>-68.12724682340219</v>
       </c>
       <c r="C188">
-        <v>21.46680137472636</v>
+        <v>-71.137546780042</v>
       </c>
       <c r="D188">
-        <v>4.263099891366455e-29</v>
+        <v>0.3332641730524148</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>34.79320096502065</v>
+        <v>-43.37077275574279</v>
       </c>
       <c r="C189">
-        <v>22.7520011384614</v>
+        <v>-46.3810727123826</v>
       </c>
       <c r="D189">
-        <v>1e-30</v>
+        <v>0.3321374770395893</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>36.29780334169097</v>
+        <v>-42.12382119773524</v>
       </c>
       <c r="C190">
-        <v>24.25660351513172</v>
+        <v>-45.13412115437505</v>
       </c>
       <c r="D190">
-        <v>1e-30</v>
+        <v>0.3319528661571119</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>38.07079928024768</v>
+        <v>-40.69939309388695</v>
       </c>
       <c r="C191">
-        <v>26.02959945368843</v>
+        <v>-43.70969305052677</v>
       </c>
       <c r="D191">
-        <v>1e-30</v>
+        <v>0.3317068608024444</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>40.17067095789539</v>
+        <v>-39.08200007131637</v>
       </c>
       <c r="C192">
-        <v>28.12947113133614</v>
+        <v>-42.09230002795618</v>
       </c>
       <c r="D192">
-        <v>1e-30</v>
+        <v>0.3313739691608327</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>42.56001343048395</v>
+        <v>-37.29575876913542</v>
       </c>
       <c r="C193">
-        <v>30.51881360392469</v>
+        <v>-40.30605872577523</v>
       </c>
       <c r="D193">
-        <v>1e-30</v>
+        <v>0.3309266152065618</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>44.67818859756974</v>
+        <v>-35.52702275536131</v>
       </c>
       <c r="C194">
-        <v>32.6369887710105</v>
+        <v>-38.53732271200112</v>
       </c>
       <c r="D194">
-        <v>1e-30</v>
+        <v>0.3303830817642448</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>44.94543429563259</v>
+        <v>-34.3426163796433</v>
       </c>
       <c r="C195">
-        <v>32.90423446907335</v>
+        <v>-37.35291633628312</v>
       </c>
       <c r="D195">
-        <v>1e-30</v>
+        <v>0.3299520888317264</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>43.0644143487599</v>
+        <v>-34.49046785427473</v>
       </c>
       <c r="C196">
-        <v>31.02321452220065</v>
+        <v>-37.50076781091454</v>
       </c>
       <c r="D196">
-        <v>1e-30</v>
+        <v>0.3300091543907027</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>40.65185779553345</v>
+        <v>-35.85724316360407</v>
       </c>
       <c r="C197">
-        <v>28.6106579689742</v>
+        <v>-38.86754312024389</v>
       </c>
       <c r="D197">
-        <v>1e-30</v>
+        <v>0.3304931349117172</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3146,69 +3146,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>38.47963798310418</v>
+        <v>-36.74488327492458</v>
       </c>
       <c r="C198">
-        <v>26.43843815654494</v>
+        <v>-39.75518323156439</v>
       </c>
       <c r="D198">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>36.64114415284494</v>
-      </c>
-      <c r="C199">
-        <v>24.59994432628569</v>
-      </c>
-      <c r="D199">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>35.08448736516597</v>
-      </c>
-      <c r="C200">
-        <v>23.04328753860672</v>
-      </c>
-      <c r="D200">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>33.74905119697666</v>
-      </c>
-      <c r="C201">
-        <v>21.70785137041741</v>
-      </c>
-      <c r="D201">
-        <v>1.234124028925966e-30</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>33.63023789115841</v>
-      </c>
-      <c r="C202">
-        <v>21.58903806459916</v>
-      </c>
-      <c r="D202">
-        <v>7.247844140758013e-30</v>
+        <v>0.3307690370548114</v>
       </c>
     </row>
   </sheetData>
